--- a/data/trans_orig/P36BPD07_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>201665</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>178095</v>
+        <v>176601</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>224254</v>
+        <v>227660</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4060878650899294</v>
+        <v>0.4060878650899293</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3586258989918593</v>
+        <v>0.3556169724196193</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4515747861126725</v>
+        <v>0.4584339665910022</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>235</v>
@@ -762,19 +762,19 @@
         <v>192434</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>171060</v>
+        <v>172166</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>214976</v>
+        <v>214755</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.309193165950553</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2748503280716156</v>
+        <v>0.2766271457678623</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3454122995216667</v>
+        <v>0.3450566487796555</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>413</v>
@@ -783,19 +783,19 @@
         <v>394099</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>360418</v>
+        <v>359350</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>426627</v>
+        <v>424779</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3521950799488429</v>
+        <v>0.352195079948843</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3220949856127919</v>
+        <v>0.3211404982045546</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3812638651680377</v>
+        <v>0.3796122819618116</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>294939</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>272350</v>
+        <v>268944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>318509</v>
+        <v>320003</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5939121349100708</v>
+        <v>0.5939121349100706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5484252138873278</v>
+        <v>0.5415660334089977</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6413741010081407</v>
+        <v>0.6443830275803807</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>624</v>
@@ -833,19 +833,19 @@
         <v>429942</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>407400</v>
+        <v>407621</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>451316</v>
+        <v>450210</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6908068340494471</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6545877004783335</v>
+        <v>0.6549433512203446</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7251496719283844</v>
+        <v>0.7233728542321377</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>899</v>
@@ -854,19 +854,19 @@
         <v>724881</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>692353</v>
+        <v>694201</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>758562</v>
+        <v>759630</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6478049200511569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6187361348319623</v>
+        <v>0.6203877180381884</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6779050143872077</v>
+        <v>0.6788595017954452</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>358509</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>325584</v>
+        <v>325836</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>390828</v>
+        <v>392487</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3737301898565101</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3394078501921935</v>
+        <v>0.3396705332589448</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4074215125058739</v>
+        <v>0.4091507083162902</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>417</v>
@@ -979,19 +979,19 @@
         <v>326716</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>300381</v>
+        <v>299580</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>357740</v>
+        <v>355818</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.292945039093698</v>
+        <v>0.2929450390936981</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2693319770594607</v>
+        <v>0.268613838420161</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3207620849346111</v>
+        <v>0.3190385134211237</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>739</v>
@@ -1000,19 +1000,19 @@
         <v>685225</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>645328</v>
+        <v>643116</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>730913</v>
+        <v>734633</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3303000226429894</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3110683058896114</v>
+        <v>0.3100022366888886</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3523229840077617</v>
+        <v>0.3541162875928593</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>600763</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>568444</v>
+        <v>566785</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>633688</v>
+        <v>633436</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6262698101434899</v>
+        <v>0.62626981014349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.592578487494126</v>
+        <v>0.5908492916837098</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6605921498078066</v>
+        <v>0.6603294667410554</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1189</v>
@@ -1050,19 +1050,19 @@
         <v>788566</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>757542</v>
+        <v>759464</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>814901</v>
+        <v>815702</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7070549609063018</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.679237915065389</v>
+        <v>0.6809614865788763</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7306680229405396</v>
+        <v>0.7313861615798388</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1776</v>
@@ -1071,19 +1071,19 @@
         <v>1389329</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1343641</v>
+        <v>1339921</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1429226</v>
+        <v>1431438</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6696999773570106</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.647677015992238</v>
+        <v>0.6458837124071407</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6889316941103882</v>
+        <v>0.6899977633111116</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>285277</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>252929</v>
+        <v>253938</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>318925</v>
+        <v>318490</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2728858870535888</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2419427277985165</v>
+        <v>0.2429085179934083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3050721411816728</v>
+        <v>0.3046562296651038</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>308</v>
@@ -1196,19 +1196,19 @@
         <v>240514</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>215936</v>
+        <v>217064</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>265836</v>
+        <v>266461</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2301210950139233</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2066055444395346</v>
+        <v>0.2076846341475535</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2543488287326463</v>
+        <v>0.2549471191376754</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>569</v>
@@ -1217,19 +1217,19 @@
         <v>525791</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>487724</v>
+        <v>481238</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>568926</v>
+        <v>563366</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2515059926812169</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2332972318022506</v>
+        <v>0.2301945398469037</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2721394495262811</v>
+        <v>0.2694797765247086</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>760130</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>726482</v>
+        <v>726917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>792478</v>
+        <v>791469</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7271141129464112</v>
+        <v>0.727114112946411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6949278588183274</v>
+        <v>0.6953437703348966</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7580572722014836</v>
+        <v>0.7570914820065917</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1205</v>
@@ -1267,19 +1267,19 @@
         <v>804648</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>779326</v>
+        <v>778701</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>829226</v>
+        <v>828098</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7698789049860769</v>
+        <v>0.7698789049860767</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7456511712673536</v>
+        <v>0.7450528808623247</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7933944555604657</v>
+        <v>0.7923153658524464</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1972</v>
@@ -1288,19 +1288,19 @@
         <v>1564778</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1521643</v>
+        <v>1527203</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1602845</v>
+        <v>1609331</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.748494007318783</v>
+        <v>0.7484940073187829</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7278605504737191</v>
+        <v>0.7305202234752914</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7667027681977493</v>
+        <v>0.7698054601530964</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>156348</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130195</v>
+        <v>131154</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>184881</v>
+        <v>185045</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1602042203925507</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1334058997392462</v>
+        <v>0.1343889595929707</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1894410062733155</v>
+        <v>0.1896087361897779</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>145</v>
@@ -1413,19 +1413,19 @@
         <v>121174</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>102846</v>
+        <v>101166</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143110</v>
+        <v>144699</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1338029000806641</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.113564591065109</v>
+        <v>0.1117088783822953</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1580242792399148</v>
+        <v>0.1597792693249106</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>279</v>
@@ -1434,19 +1434,19 @@
         <v>277522</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>243572</v>
+        <v>246047</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>313910</v>
+        <v>315587</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1474968444580178</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1294528375486307</v>
+        <v>0.130768470846462</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1668358305060988</v>
+        <v>0.1677270591228493</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>819581</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>791048</v>
+        <v>790884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>845734</v>
+        <v>844775</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8397957796074493</v>
+        <v>0.8397957796074494</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8105589937266847</v>
+        <v>0.8103912638102222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8665941002607539</v>
+        <v>0.8656110404070294</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1171</v>
@@ -1484,19 +1484,19 @@
         <v>784445</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>762509</v>
+        <v>760920</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>802773</v>
+        <v>804453</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8661970999193358</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8419757207600852</v>
+        <v>0.8402207306750894</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8864354089348911</v>
+        <v>0.8882911216177047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1984</v>
@@ -1505,19 +1505,19 @@
         <v>1604026</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1567638</v>
+        <v>1565961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1637976</v>
+        <v>1635501</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8525031555419821</v>
+        <v>0.8525031555419822</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.833164169493901</v>
+        <v>0.8322729408771506</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8705471624513682</v>
+        <v>0.869231529153538</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>1001798</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>940230</v>
+        <v>943759</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1059689</v>
+        <v>1059929</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2881039429191111</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2703976116603288</v>
+        <v>0.271412693879869</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3047526062339867</v>
+        <v>0.3048214624328349</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1105</v>
@@ -1630,19 +1630,19 @@
         <v>880839</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>836341</v>
+        <v>833046</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>932563</v>
+        <v>930979</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2388107805381596</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2267466077358286</v>
+        <v>0.225853381502754</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2528341470298655</v>
+        <v>0.2524045372374043</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2000</v>
@@ -1651,19 +1651,19 @@
         <v>1882637</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1808302</v>
+        <v>1801489</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1962308</v>
+        <v>1959566</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2627308342447007</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2523570281245688</v>
+        <v>0.2514061933741716</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2738491985077293</v>
+        <v>0.2734666273151707</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2475414</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2417523</v>
+        <v>2417283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2536982</v>
+        <v>2533453</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7118960570808889</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6952473937660133</v>
+        <v>0.6951785375671651</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7296023883396713</v>
+        <v>0.7285873061201312</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4189</v>
@@ -1701,19 +1701,19 @@
         <v>2807600</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2755876</v>
+        <v>2757460</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2852098</v>
+        <v>2855393</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7611892194618405</v>
+        <v>0.7611892194618404</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7471658529701345</v>
+        <v>0.7475954627625957</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7732533922641713</v>
+        <v>0.7741466184972461</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6631</v>
@@ -1722,19 +1722,19 @@
         <v>5283014</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5203343</v>
+        <v>5206085</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5357349</v>
+        <v>5364162</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7372691657552992</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7261508014922706</v>
+        <v>0.7265333726848294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7476429718754311</v>
+        <v>0.748593806625829</v>
       </c>
     </row>
     <row r="18">
